--- a/pred_ohlcv/54_21/2019-10-28 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ZEC ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-51.63171291999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-29.18711291999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-25.22011291999998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-34.91841291999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-66.78381291999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-153.98171292</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-172.46171292</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-176.83771292</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-184.24761292</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-172.26471292</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-164.54061292</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-146.01271292</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-151.06161292</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-147.09711292</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-128.64921292</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-134.19411292</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-170.04361292</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-170.04361292</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-177.12361292</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-177.22361292</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-275.59651292</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-240.44751292</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-226.44751292</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-227.44751292</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-390.4799949700001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-411.7181949700001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-402.11819497</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-409.53789497</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-378.90049497</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-374.48269497</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-375.10759497</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-376.10759497</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-376.10759497</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-363.10759497</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-353.77399497</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-349.34629497</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-349.34629497</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-340.75809497</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-340.75809497</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-340.75809497</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-304.35289497</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-279.41039497</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-281.42039497</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-281.41039497</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-281.41039497</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-287.41039497</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-288.64039497</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-266.86489497</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-290.92119497</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-290.9111949700001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-292.18119497</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-291.13489497</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-143.68499497</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-142.66529497</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-142.66529497</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-128.01859497</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-59.66412788999997</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-40.75672788999998</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-46.78242788999998</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>94.84384347000002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>257.53284347</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>267.94234347</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>267.94234347</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>267.94234347</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>247.94234347</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>413.0008034799999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>395.9017034799999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>318.5543034799999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>318.5969034799999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>308.5969034799999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>298.1914034799999</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>299.9860034799999</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>289.1125034799999</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>205.3263034799999</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>196.2447034799999</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>236.2447034799999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ZEC ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-51.63171291999998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-29.18711291999998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-25.22011291999998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-34.91841291999998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-66.78381291999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-133.99661292</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-131.99661292</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-132.19411292</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-175.59651292</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-275.59651292</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-275.59651292</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-264.74651292</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-247.70571292</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-247.60571292</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-226.44751292</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-230.76351292</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-230.76351292</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-203.82519497</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-390.4799949700001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-402.11819497</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-409.53789497</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-378.90049497</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-375.11759497</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-375.10759497</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-376.10759497</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-376.10759497</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-363.10759497</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-353.77399497</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-349.34629497</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-349.34629497</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-340.75809497</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-340.75809497</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-340.75809497</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-304.35289497</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-279.41039497</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-281.42039497</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-281.41039497</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-281.41039497</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-287.41039497</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-288.64039497</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-266.86489497</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-290.92119497</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-290.9111949700001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-292.18119497</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-293.06619497</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-291.13489497</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-290.08399497</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-232.70319497</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-143.68499497</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-143.68499497</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-142.66529497</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-142.66529497</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-128.01859497</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-59.66412788999997</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-40.75672788999998</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-46.78242788999998</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>94.84384347000002</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>257.53284347</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>267.94234347</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>267.94234347</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>247.94234347</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>413.0008034799999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>395.9017034799999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>318.5543034799999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>318.5969034799999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>308.5969034799999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>298.1914034799999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>299.9860034799999</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>299.3826034799999</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>299.4450034799999</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>205.3263034799999</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>196.2447034799999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>219.2465034799999</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>209.2465034799999</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>209.2465034799999</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
